--- a/Subject_data.xlsx
+++ b/Subject_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicoletomassi/PycharmProjects/implant_model_v2_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3CDFE0-CA6E-654D-AD4C-43E87DDB918C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD612A6-9F03-C146-861C-95162119311D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="2660" windowWidth="21260" windowHeight="13340" firstSheet="6" activeTab="13" xr2:uid="{355526F1-AF42-2541-BBBE-70088E0ABB1B}"/>
+    <workbookView xWindow="6460" yWindow="760" windowWidth="21000" windowHeight="18020" firstSheet="9" activeTab="18" xr2:uid="{355526F1-AF42-2541-BBBE-70088E0ABB1B}"/>
   </bookViews>
   <sheets>
     <sheet name="S22" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="S55" sheetId="17" r:id="rId17"/>
     <sheet name="S56" sheetId="18" r:id="rId18"/>
     <sheet name="S57" sheetId="19" r:id="rId19"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="16">
   <si>
     <t>Electrode</t>
   </si>
@@ -90,6 +91,18 @@
   </si>
   <si>
     <t>M_levels_date</t>
+  </si>
+  <si>
+    <t>avg CT positions</t>
+  </si>
+  <si>
+    <t>min and max of A</t>
+  </si>
+  <si>
+    <t>min of electrodes in that position</t>
+  </si>
+  <si>
+    <t>max of electrode positions</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1592,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1625,6 +1638,9 @@
       </c>
     </row>
     <row r="2" spans="1:14">
+      <c r="A2">
+        <v>0.85</v>
+      </c>
       <c r="B2">
         <v>1</v>
       </c>
@@ -2835,7 +2851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D9EC03-931B-2C40-98D6-8B2A1ED301D0}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3227,397 +3243,6 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53219DE-B960-4F4C-B0DD-16093E4D5890}">
-  <dimension ref="A1:N17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="D2">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="E2">
-        <v>38.83</v>
-      </c>
-      <c r="F2">
-        <v>267</v>
-      </c>
-      <c r="I2">
-        <f>20*LOG10(F2)</f>
-        <v>48.53022522729151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="D3">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="E3">
-        <v>38.83</v>
-      </c>
-      <c r="F3">
-        <v>284</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I17" si="0">20*LOG10(F3)</f>
-        <v>49.066366800940749</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="D4">
-        <v>40.4</v>
-      </c>
-      <c r="E4">
-        <v>41.9</v>
-      </c>
-      <c r="F4">
-        <v>301</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>49.571329911876873</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>0.37</v>
-      </c>
-      <c r="D5">
-        <v>40.1</v>
-      </c>
-      <c r="E5">
-        <v>44</v>
-      </c>
-      <c r="F5">
-        <v>256</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>48.164799306236993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="D6">
-        <v>41</v>
-      </c>
-      <c r="E6">
-        <v>44.92</v>
-      </c>
-      <c r="F6">
-        <v>298</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>49.484325281525102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>0.2</v>
-      </c>
-      <c r="D7">
-        <v>40.5</v>
-      </c>
-      <c r="E7">
-        <v>47.08</v>
-      </c>
-      <c r="F7">
-        <v>291</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>49.277859779718149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="D8">
-        <v>41.3</v>
-      </c>
-      <c r="E8">
-        <v>49.15</v>
-      </c>
-      <c r="F8">
-        <v>242</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>47.676307319608625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.112</v>
-      </c>
-      <c r="D9">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="E9">
-        <v>47.33</v>
-      </c>
-      <c r="F9">
-        <v>253</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>48.062410423516361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>0.21</v>
-      </c>
-      <c r="D10">
-        <v>39.6</v>
-      </c>
-      <c r="E10">
-        <v>46.98</v>
-      </c>
-      <c r="F10">
-        <v>253</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>48.062410423516361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="D11">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="E11">
-        <v>46.73</v>
-      </c>
-      <c r="F11">
-        <v>394</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>51.909924436511481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="D12">
-        <v>40</v>
-      </c>
-      <c r="E12">
-        <v>47</v>
-      </c>
-      <c r="F12">
-        <v>231</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>47.272239597842891</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="D13">
-        <v>40.5</v>
-      </c>
-      <c r="E13">
-        <v>46.46</v>
-      </c>
-      <c r="F13">
-        <v>215</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>46.64876919831211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="D14">
-        <v>39.4</v>
-      </c>
-      <c r="E14">
-        <v>46.31</v>
-      </c>
-      <c r="F14">
-        <v>223</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>46.96609726096321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="D15">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="E15">
-        <v>44.32</v>
-      </c>
-      <c r="F15">
-        <v>187</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>45.436832130729982</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="D16">
-        <v>40.4</v>
-      </c>
-      <c r="E16">
-        <v>46.66</v>
-      </c>
-      <c r="F16">
-        <v>187</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>45.436832130729982</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.152</v>
-      </c>
-      <c r="D17">
-        <v>40.4</v>
-      </c>
-      <c r="E17">
-        <v>46.66</v>
-      </c>
-      <c r="F17">
-        <v>187</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>45.436832130729982</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D570386-9ADC-254A-AF4E-282DA875E76C}">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3667,6 +3292,403 @@
       </c>
     </row>
     <row r="2" spans="1:14">
+      <c r="A2">
+        <v>0.85</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D2">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E2">
+        <v>38.83</v>
+      </c>
+      <c r="F2">
+        <v>267</v>
+      </c>
+      <c r="I2">
+        <f>20*LOG10(F2)</f>
+        <v>48.53022522729151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D3">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E3">
+        <v>38.83</v>
+      </c>
+      <c r="F3">
+        <v>284</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I17" si="0">20*LOG10(F3)</f>
+        <v>49.066366800940749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="D4">
+        <v>40.4</v>
+      </c>
+      <c r="E4">
+        <v>41.9</v>
+      </c>
+      <c r="F4">
+        <v>301</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>49.571329911876873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.37</v>
+      </c>
+      <c r="D5">
+        <v>40.1</v>
+      </c>
+      <c r="E5">
+        <v>44</v>
+      </c>
+      <c r="F5">
+        <v>256</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>48.164799306236993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D6">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>44.92</v>
+      </c>
+      <c r="F6">
+        <v>298</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>49.484325281525102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0.2</v>
+      </c>
+      <c r="D7">
+        <v>40.5</v>
+      </c>
+      <c r="E7">
+        <v>47.08</v>
+      </c>
+      <c r="F7">
+        <v>291</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>49.277859779718149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D8">
+        <v>41.3</v>
+      </c>
+      <c r="E8">
+        <v>49.15</v>
+      </c>
+      <c r="F8">
+        <v>242</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>47.676307319608625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.112</v>
+      </c>
+      <c r="D9">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="E9">
+        <v>47.33</v>
+      </c>
+      <c r="F9">
+        <v>253</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>48.062410423516361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0.21</v>
+      </c>
+      <c r="D10">
+        <v>39.6</v>
+      </c>
+      <c r="E10">
+        <v>46.98</v>
+      </c>
+      <c r="F10">
+        <v>253</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>48.062410423516361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D11">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="E11">
+        <v>46.73</v>
+      </c>
+      <c r="F11">
+        <v>394</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>51.909924436511481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>47</v>
+      </c>
+      <c r="F12">
+        <v>231</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>47.272239597842891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="D13">
+        <v>40.5</v>
+      </c>
+      <c r="E13">
+        <v>46.46</v>
+      </c>
+      <c r="F13">
+        <v>215</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>46.64876919831211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="D14">
+        <v>39.4</v>
+      </c>
+      <c r="E14">
+        <v>46.31</v>
+      </c>
+      <c r="F14">
+        <v>223</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>46.96609726096321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="D15">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="E15">
+        <v>44.32</v>
+      </c>
+      <c r="F15">
+        <v>187</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>45.436832130729982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="D16">
+        <v>40.4</v>
+      </c>
+      <c r="E16">
+        <v>46.66</v>
+      </c>
+      <c r="F16">
+        <v>187</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>45.436832130729982</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.152</v>
+      </c>
+      <c r="D17">
+        <v>40.4</v>
+      </c>
+      <c r="E17">
+        <v>46.66</v>
+      </c>
+      <c r="F17">
+        <v>187</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>45.436832130729982</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D570386-9ADC-254A-AF4E-282DA875E76C}">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>0.85</v>
+      </c>
       <c r="B2">
         <v>1</v>
       </c>
@@ -4009,6 +4031,2184 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B11E3D-8DBC-3745-B916-776D6CB25F1A}">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-0.80800000000000005</v>
+      </c>
+      <c r="D2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E2">
+        <v>42.3</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <f>20*LOG10(F2)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>-0.748</v>
+      </c>
+      <c r="D3">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E3">
+        <v>42.3</v>
+      </c>
+      <c r="F3">
+        <v>159</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I17" si="0">20*LOG10(F3)</f>
+        <v>44.027942486409025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>-0.85599999999999998</v>
+      </c>
+      <c r="D4">
+        <v>33.6</v>
+      </c>
+      <c r="E4">
+        <v>39.9</v>
+      </c>
+      <c r="F4">
+        <v>158</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>43.973141739088454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>-0.76</v>
+      </c>
+      <c r="D5">
+        <v>33.6</v>
+      </c>
+      <c r="E5">
+        <v>41.8</v>
+      </c>
+      <c r="F5">
+        <v>157</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>43.91799304818467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>-0.71</v>
+      </c>
+      <c r="D6">
+        <v>33.9</v>
+      </c>
+      <c r="E6">
+        <v>41.5</v>
+      </c>
+      <c r="F6">
+        <v>168</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>44.506185634517259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-0.46600000000000003</v>
+      </c>
+      <c r="D7">
+        <v>34.1</v>
+      </c>
+      <c r="E7">
+        <v>42.2</v>
+      </c>
+      <c r="F7">
+        <v>177</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>44.959465327236138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>-0.44</v>
+      </c>
+      <c r="D8">
+        <v>30.7</v>
+      </c>
+      <c r="E8">
+        <v>41.9</v>
+      </c>
+      <c r="F8">
+        <v>177</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>44.959465327236138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-0.44400000000000001</v>
+      </c>
+      <c r="D9">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E9">
+        <v>43.8</v>
+      </c>
+      <c r="F9">
+        <v>199</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>45.977061528194135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>-0.34599999999999997</v>
+      </c>
+      <c r="D10">
+        <v>33.9</v>
+      </c>
+      <c r="E10">
+        <v>44.1</v>
+      </c>
+      <c r="F10">
+        <v>211</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>46.485649105953854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-0.13400000000000001</v>
+      </c>
+      <c r="D11">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E11">
+        <v>44.6</v>
+      </c>
+      <c r="F11">
+        <v>211</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>46.485649105953854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D12">
+        <v>35.6</v>
+      </c>
+      <c r="E12">
+        <v>43.9</v>
+      </c>
+      <c r="F12">
+        <v>229</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>47.196709646797757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="D13">
+        <v>33.4</v>
+      </c>
+      <c r="E13">
+        <v>42.2</v>
+      </c>
+      <c r="F13">
+        <v>256</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>48.164799306236993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D14">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E14">
+        <v>45.5</v>
+      </c>
+      <c r="F14">
+        <v>272</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>48.691378080683975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-0.06</v>
+      </c>
+      <c r="D15">
+        <v>35.1</v>
+      </c>
+      <c r="E15">
+        <v>43.8</v>
+      </c>
+      <c r="F15">
+        <v>256</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>48.164799306236993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D16">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E16">
+        <v>45.4</v>
+      </c>
+      <c r="F16">
+        <v>251</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>47.993474429620761</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D17">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E17">
+        <v>45.4</v>
+      </c>
+      <c r="F17">
+        <v>200</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>46.020599913279625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8B7EE7-0C56-7E4C-ABAB-71B2B8A876D2}">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-0.65600000000000003</v>
+      </c>
+      <c r="D2">
+        <v>34.4</v>
+      </c>
+      <c r="E2">
+        <v>47.5</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="I2">
+        <f>20*LOG10(F2)</f>
+        <v>46.020599913279625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-0.45600000000000002</v>
+      </c>
+      <c r="D3">
+        <v>34.4</v>
+      </c>
+      <c r="E3">
+        <v>47.5</v>
+      </c>
+      <c r="F3">
+        <v>265</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I17" si="0">20*LOG10(F3)</f>
+        <v>48.464917478736155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>46.4</v>
+      </c>
+      <c r="F4">
+        <v>223</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>46.96609726096321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="D5">
+        <v>25.5</v>
+      </c>
+      <c r="E5">
+        <v>41.9</v>
+      </c>
+      <c r="F5">
+        <v>237</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>47.494966920202081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="D6">
+        <v>30.5</v>
+      </c>
+      <c r="E6">
+        <v>50.1</v>
+      </c>
+      <c r="F6">
+        <v>234</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>47.384317148202861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="D7">
+        <v>35.6</v>
+      </c>
+      <c r="E7">
+        <v>46.2</v>
+      </c>
+      <c r="F7">
+        <v>237</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>47.494966920202081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D8">
+        <v>35.4</v>
+      </c>
+      <c r="E8">
+        <v>48.3</v>
+      </c>
+      <c r="F8">
+        <v>251</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>47.993474429620761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E9">
+        <v>47.1</v>
+      </c>
+      <c r="F9">
+        <v>251</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>47.993474429620761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0.104</v>
+      </c>
+      <c r="D10">
+        <v>33.6</v>
+      </c>
+      <c r="E10">
+        <v>42.9</v>
+      </c>
+      <c r="F10">
+        <v>256</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>48.164799306236993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D11">
+        <v>33.1</v>
+      </c>
+      <c r="E11">
+        <v>49.5</v>
+      </c>
+      <c r="F11">
+        <v>259</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>48.265995281625038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>33.9</v>
+      </c>
+      <c r="E12">
+        <v>46.1</v>
+      </c>
+      <c r="F12">
+        <v>312</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>49.883091880368859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D13">
+        <v>34.5</v>
+      </c>
+      <c r="E13">
+        <v>46.6</v>
+      </c>
+      <c r="F13">
+        <v>316</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>49.99374165236808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="D14">
+        <v>33.4</v>
+      </c>
+      <c r="E14">
+        <v>49.4</v>
+      </c>
+      <c r="F14">
+        <v>301</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>49.571329911876873</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="D15">
+        <v>35.9</v>
+      </c>
+      <c r="E15">
+        <v>46</v>
+      </c>
+      <c r="F15">
+        <v>298</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>49.484325281525102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.622</v>
+      </c>
+      <c r="D16">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="E16">
+        <v>50.2</v>
+      </c>
+      <c r="F16">
+        <v>278</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>48.880895918361524</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="D17">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="E17">
+        <v>50.2</v>
+      </c>
+      <c r="F17">
+        <v>200</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>46.020599913279625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2163E86-6E80-A740-9F46-DA057009EF8E}">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>0.85</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-0.14399999999999999</v>
+      </c>
+      <c r="D2">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="E2">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="I2">
+        <f>20*LOG10(F2)</f>
+        <v>46.020599913279625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>-0.23799999999999999</v>
+      </c>
+      <c r="D3">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="E3">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="F3">
+        <v>207</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I17" si="0">20*LOG10(F3)</f>
+        <v>46.319406909138358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-0.21</v>
+      </c>
+      <c r="D4">
+        <v>37.5</v>
+      </c>
+      <c r="E4">
+        <v>42.4</v>
+      </c>
+      <c r="F4">
+        <v>221</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>46.887845473702214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>-0.37</v>
+      </c>
+      <c r="D5">
+        <v>37.5</v>
+      </c>
+      <c r="E5">
+        <v>44.3</v>
+      </c>
+      <c r="F5">
+        <v>257</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>48.19866246662589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-0.42399999999999999</v>
+      </c>
+      <c r="D6">
+        <v>37.9</v>
+      </c>
+      <c r="E6">
+        <v>48.9</v>
+      </c>
+      <c r="F6">
+        <v>246</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>47.818702142067586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>-0.308</v>
+      </c>
+      <c r="D7">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E7">
+        <v>52.4</v>
+      </c>
+      <c r="F7">
+        <v>224</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>47.004960366683257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-0.27400000000000002</v>
+      </c>
+      <c r="D8">
+        <v>36.75</v>
+      </c>
+      <c r="E8">
+        <v>50.3</v>
+      </c>
+      <c r="F8">
+        <v>221</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>46.887845473702214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-0.442</v>
+      </c>
+      <c r="D9">
+        <v>36.5</v>
+      </c>
+      <c r="E9">
+        <v>48</v>
+      </c>
+      <c r="F9">
+        <v>232</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>47.309759697817995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-0.48</v>
+      </c>
+      <c r="D10">
+        <v>36.9</v>
+      </c>
+      <c r="E10">
+        <v>45.4</v>
+      </c>
+      <c r="F10">
+        <v>237</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>47.494966920202081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-0.372</v>
+      </c>
+      <c r="D11">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E11">
+        <v>40.9</v>
+      </c>
+      <c r="F11">
+        <v>229</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>47.196709646797757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D12">
+        <v>35.5</v>
+      </c>
+      <c r="E12">
+        <v>46.3</v>
+      </c>
+      <c r="F12">
+        <v>224</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>47.004960366683257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="D13">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E13">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="F13">
+        <v>168</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>44.506185634517259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="D14">
+        <v>32.6</v>
+      </c>
+      <c r="E14">
+        <v>36.1</v>
+      </c>
+      <c r="F14">
+        <v>170</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>44.608978427565482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="D15">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E15">
+        <v>36.5</v>
+      </c>
+      <c r="F15">
+        <v>162</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>44.190300290852619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="D16">
+        <v>32.9</v>
+      </c>
+      <c r="E16">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="F16">
+        <v>133</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>42.477032819341716</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D17">
+        <v>32.9</v>
+      </c>
+      <c r="E17">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E26D15-C0F9-114E-AC4F-43297D387AFC}">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-0.71499999999999997</v>
+      </c>
+      <c r="N2" s="8">
+        <v>41282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-0.80600000000000005</v>
+      </c>
+      <c r="D3" s="7">
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>43.095335872603769</v>
+      </c>
+      <c r="F3" s="7">
+        <v>113.5</v>
+      </c>
+      <c r="I3">
+        <v>41.099917230582832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-0.86850000000000005</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4">
+        <v>43.439947503832258</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-0.81499999999999995</v>
+      </c>
+      <c r="D5" s="7">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>45.328524805390039</v>
+      </c>
+      <c r="F5" s="7">
+        <v>153.1</v>
+      </c>
+      <c r="I5">
+        <v>43.699503813965215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-0.59099999999999997</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6">
+        <v>43.482799108622281</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-0.254</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7">
+        <v>41.931842116038631</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-0.13100000000000001</v>
+      </c>
+      <c r="D8" s="7">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>41.608682937038786</v>
+      </c>
+      <c r="F8" s="7">
+        <v>124.5</v>
+      </c>
+      <c r="I8">
+        <v>41.903387028635102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-0.315</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9">
+        <v>45.022613373376807</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-0.46800000000000003</v>
+      </c>
+      <c r="D10" s="7">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>50.339991966275974</v>
+      </c>
+      <c r="F10" s="7">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="I10">
+        <v>42.198317260475868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11">
+        <v>45.438592442931494</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12">
+        <v>44.17528016116497</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="D13" s="7">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>44.491521336736014</v>
+      </c>
+      <c r="F13" s="7">
+        <v>149.6</v>
+      </c>
+      <c r="I13">
+        <v>43.498631870568843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.1082</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14">
+        <v>46.203319968205193</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-0.106</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15">
+        <v>48.207202008189725</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-0.373</v>
+      </c>
+      <c r="D16" s="7">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>49.18620195816068</v>
+      </c>
+      <c r="F16" s="7">
+        <v>153.1</v>
+      </c>
+      <c r="I16">
+        <v>43.699503813965215</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-0.753</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50912F2-C890-1646-AD59-081AE43C5313}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <f>AVERAGE('S57'!C2,'S56'!C2,'S55'!C2,'S54'!C2,'S53'!C2,'S52'!C2,'S50'!C2,S49R!C2,'S48'!C2,'S47'!C2,'S46'!C2,'S43'!C2,'S42'!C2,'S41'!C2,'S40'!C2,'S38'!C2,'S29'!C2,'S27'!C2,'S22'!C2)</f>
+        <v>-0.38625789473684208</v>
+      </c>
+      <c r="B2">
+        <f>MIN(A2:A17)</f>
+        <v>-0.38625789473684208</v>
+      </c>
+      <c r="D2">
+        <f>MIN('S57'!C2,'S56'!C2,'S55'!C2,'S54'!C2,'S53'!C2,'S52'!C2,'S50'!C2,S49R!C2,'S48'!C2,'S47'!C2,'S46'!C2,'S43'!C2,'S42'!C2,'S41'!C2,'S40'!C2,'S38'!C2,'S29'!C2,'S27'!C2,'S22'!C2)</f>
+        <v>-0.88600000000000001</v>
+      </c>
+      <c r="E2">
+        <f>MAX('S57'!C2,'S56'!C2,'S55'!C2,'S54'!C2,'S53'!C2,'S52'!C2,'S50'!C2,S49R!C2,'S48'!C2,'S47'!C2,'S46'!C2,'S43'!C2,'S42'!C2,'S41'!C2,'S40'!C2,'S38'!C2,'S29'!C2,'S27'!C2,'S22'!C2)</f>
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <f>AVERAGE('S57'!C3,'S56'!C3,'S55'!C3,'S54'!C3,'S53'!C3,'S52'!C3,'S50'!C3,S49R!C3,'S48'!C3,'S47'!C3,'S46'!C3,'S43'!C3,'S42'!C3,'S41'!C3,'S40'!C3,'S38'!C3,'S29'!C3,'S27'!C3,'S22'!C3)</f>
+        <v>-0.31351745110526325</v>
+      </c>
+      <c r="B3">
+        <f>MAX(A2:A17)</f>
+        <v>0.12317578947368425</v>
+      </c>
+      <c r="D3">
+        <f>MIN('S57'!C3,'S56'!C3,'S55'!C3,'S54'!C3,'S53'!C3,'S52'!C3,'S50'!C3,S49R!C3,'S48'!C3,'S47'!C3,'S46'!C3,'S43'!C3,'S42'!C3,'S41'!C3,'S40'!C3,'S38'!C3,'S29'!C3,'S27'!C3,'S22'!C3)</f>
+        <v>-0.92670157099999995</v>
+      </c>
+      <c r="E3">
+        <f>MAX('S57'!C3,'S56'!C3,'S55'!C3,'S54'!C3,'S53'!C3,'S52'!C3,'S50'!C3,S49R!C3,'S48'!C3,'S47'!C3,'S46'!C3,'S43'!C3,'S42'!C3,'S41'!C3,'S40'!C3,'S38'!C3,'S29'!C3,'S27'!C3,'S22'!C3)</f>
+        <v>0.66800000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <f>AVERAGE('S57'!C4,'S56'!C4,'S55'!C4,'S54'!C4,'S53'!C4,'S52'!C4,'S50'!C4,S49R!C4,'S48'!C4,'S47'!C4,'S46'!C4,'S43'!C4,'S42'!C4,'S41'!C4,'S40'!C4,'S38'!C4,'S29'!C4,'S27'!C4,'S22'!C4)</f>
+        <v>-0.26218693778947366</v>
+      </c>
+      <c r="D4">
+        <f>MIN('S57'!C4,'S56'!C4,'S55'!C4,'S54'!C4,'S53'!C4,'S52'!C4,'S50'!C4,S49R!C4,'S48'!C4,'S47'!C4,'S46'!C4,'S43'!C4,'S42'!C4,'S41'!C4,'S40'!C4,'S38'!C4,'S29'!C4,'S27'!C4,'S22'!C4)</f>
+        <v>-0.91818181799999998</v>
+      </c>
+      <c r="E4">
+        <f>MAX('S57'!C4,'S56'!C4,'S55'!C4,'S54'!C4,'S53'!C4,'S52'!C4,'S50'!C4,S49R!C4,'S48'!C4,'S47'!C4,'S46'!C4,'S43'!C4,'S42'!C4,'S41'!C4,'S40'!C4,'S38'!C4,'S29'!C4,'S27'!C4,'S22'!C4)</f>
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <f>AVERAGE('S57'!C5,'S56'!C5,'S55'!C5,'S54'!C5,'S53'!C5,'S52'!C5,'S50'!C5,S49R!C5,'S48'!C5,'S47'!C5,'S46'!C5,'S43'!C5,'S42'!C5,'S41'!C5,'S40'!C5,'S38'!C5,'S29'!C5,'S27'!C5,'S22'!C5)</f>
+        <v>-0.26020000000000004</v>
+      </c>
+      <c r="D5">
+        <f>MIN('S57'!C5,'S56'!C5,'S55'!C5,'S54'!C5,'S53'!C5,'S52'!C5,'S50'!C5,S49R!C5,'S48'!C5,'S47'!C5,'S46'!C5,'S43'!C5,'S42'!C5,'S41'!C5,'S40'!C5,'S38'!C5,'S29'!C5,'S27'!C5,'S22'!C5)</f>
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="E5">
+        <f>MAX('S57'!C5,'S56'!C5,'S55'!C5,'S54'!C5,'S53'!C5,'S52'!C5,'S50'!C5,S49R!C5,'S48'!C5,'S47'!C5,'S46'!C5,'S43'!C5,'S42'!C5,'S41'!C5,'S40'!C5,'S38'!C5,'S29'!C5,'S27'!C5,'S22'!C5)</f>
+        <v>0.57440000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <f>AVERAGE('S57'!C6,'S56'!C6,'S55'!C6,'S54'!C6,'S53'!C6,'S52'!C6,'S50'!C6,S49R!C6,'S48'!C6,'S47'!C6,'S46'!C6,'S43'!C6,'S42'!C6,'S41'!C6,'S40'!C6,'S38'!C6,'S29'!C6,'S27'!C6,'S22'!C6)</f>
+        <v>-0.30972362631578954</v>
+      </c>
+      <c r="D6">
+        <f>MIN('S57'!C6,'S56'!C6,'S55'!C6,'S54'!C6,'S53'!C6,'S52'!C6,'S50'!C6,S49R!C6,'S48'!C6,'S47'!C6,'S46'!C6,'S43'!C6,'S42'!C6,'S41'!C6,'S40'!C6,'S38'!C6,'S29'!C6,'S27'!C6,'S22'!C6)</f>
+        <v>-0.88944000000000001</v>
+      </c>
+      <c r="E6">
+        <f>MAX('S57'!C6,'S56'!C6,'S55'!C6,'S54'!C6,'S53'!C6,'S52'!C6,'S50'!C6,S49R!C6,'S48'!C6,'S47'!C6,'S46'!C6,'S43'!C6,'S42'!C6,'S41'!C6,'S40'!C6,'S38'!C6,'S29'!C6,'S27'!C6,'S22'!C6)</f>
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <f>AVERAGE('S57'!C7,'S56'!C7,'S55'!C7,'S54'!C7,'S53'!C7,'S52'!C7,'S50'!C7,S49R!C7,'S48'!C7,'S47'!C7,'S46'!C7,'S43'!C7,'S42'!C7,'S41'!C7,'S40'!C7,'S38'!C7,'S29'!C7,'S27'!C7,'S22'!C7)</f>
+        <v>-0.29955394736842106</v>
+      </c>
+      <c r="D7">
+        <f>MIN('S57'!C7,'S56'!C7,'S55'!C7,'S54'!C7,'S53'!C7,'S52'!C7,'S50'!C7,S49R!C7,'S48'!C7,'S47'!C7,'S46'!C7,'S43'!C7,'S42'!C7,'S41'!C7,'S40'!C7,'S38'!C7,'S29'!C7,'S27'!C7,'S22'!C7)</f>
+        <v>-0.84210499999999999</v>
+      </c>
+      <c r="E7">
+        <f>MAX('S57'!C7,'S56'!C7,'S55'!C7,'S54'!C7,'S53'!C7,'S52'!C7,'S50'!C7,S49R!C7,'S48'!C7,'S47'!C7,'S46'!C7,'S43'!C7,'S42'!C7,'S41'!C7,'S40'!C7,'S38'!C7,'S29'!C7,'S27'!C7,'S22'!C7)</f>
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <f>AVERAGE('S57'!C8,'S56'!C8,'S55'!C8,'S54'!C8,'S53'!C8,'S52'!C8,'S50'!C8,S49R!C8,'S48'!C8,'S47'!C8,'S46'!C8,'S43'!C8,'S42'!C8,'S41'!C8,'S40'!C8,'S38'!C8,'S29'!C8,'S27'!C8,'S22'!C8)</f>
+        <v>-0.31765263157894735</v>
+      </c>
+      <c r="D8">
+        <f>MIN('S57'!C8,'S56'!C8,'S55'!C8,'S54'!C8,'S53'!C8,'S52'!C8,'S50'!C8,S49R!C8,'S48'!C8,'S47'!C8,'S46'!C8,'S43'!C8,'S42'!C8,'S41'!C8,'S40'!C8,'S38'!C8,'S29'!C8,'S27'!C8,'S22'!C8)</f>
+        <v>-0.8972</v>
+      </c>
+      <c r="E8">
+        <f>MAX('S57'!C8,'S56'!C8,'S55'!C8,'S54'!C8,'S53'!C8,'S52'!C8,'S50'!C8,S49R!C8,'S48'!C8,'S47'!C8,'S46'!C8,'S43'!C8,'S42'!C8,'S41'!C8,'S40'!C8,'S38'!C8,'S29'!C8,'S27'!C8,'S22'!C8)</f>
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <f>AVERAGE('S57'!C9,'S56'!C9,'S55'!C9,'S54'!C9,'S53'!C9,'S52'!C9,'S50'!C9,S49R!C9,'S48'!C9,'S47'!C9,'S46'!C9,'S43'!C9,'S42'!C9,'S41'!C9,'S40'!C9,'S38'!C9,'S29'!C9,'S27'!C9,'S22'!C9)</f>
+        <v>-0.36524426315789482</v>
+      </c>
+      <c r="D9">
+        <f>MIN('S57'!C9,'S56'!C9,'S55'!C9,'S54'!C9,'S53'!C9,'S52'!C9,'S50'!C9,S49R!C9,'S48'!C9,'S47'!C9,'S46'!C9,'S43'!C9,'S42'!C9,'S41'!C9,'S40'!C9,'S38'!C9,'S29'!C9,'S27'!C9,'S22'!C9)</f>
+        <v>-0.81739099999999998</v>
+      </c>
+      <c r="E9">
+        <f>MAX('S57'!C9,'S56'!C9,'S55'!C9,'S54'!C9,'S53'!C9,'S52'!C9,'S50'!C9,S49R!C9,'S48'!C9,'S47'!C9,'S46'!C9,'S43'!C9,'S42'!C9,'S41'!C9,'S40'!C9,'S38'!C9,'S29'!C9,'S27'!C9,'S22'!C9)</f>
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <f>AVERAGE('S57'!C10,'S56'!C10,'S55'!C10,'S54'!C10,'S53'!C10,'S52'!C10,'S50'!C10,S49R!C10,'S48'!C10,'S47'!C10,'S46'!C10,'S43'!C10,'S42'!C10,'S41'!C10,'S40'!C10,'S38'!C10,'S29'!C10,'S27'!C10,'S22'!C10)</f>
+        <v>-0.33857263157894735</v>
+      </c>
+      <c r="D10">
+        <f>MIN('S57'!C10,'S56'!C10,'S55'!C10,'S54'!C10,'S53'!C10,'S52'!C10,'S50'!C10,S49R!C10,'S48'!C10,'S47'!C10,'S46'!C10,'S43'!C10,'S42'!C10,'S41'!C10,'S40'!C10,'S38'!C10,'S29'!C10,'S27'!C10,'S22'!C10)</f>
+        <v>-0.76870000000000005</v>
+      </c>
+      <c r="E10">
+        <f>MAX('S57'!C10,'S56'!C10,'S55'!C10,'S54'!C10,'S53'!C10,'S52'!C10,'S50'!C10,S49R!C10,'S48'!C10,'S47'!C10,'S46'!C10,'S43'!C10,'S42'!C10,'S41'!C10,'S40'!C10,'S38'!C10,'S29'!C10,'S27'!C10,'S22'!C10)</f>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <f>AVERAGE('S57'!C11,'S56'!C11,'S55'!C11,'S54'!C11,'S53'!C11,'S52'!C11,'S50'!C11,S49R!C11,'S48'!C11,'S47'!C11,'S46'!C11,'S43'!C11,'S42'!C11,'S41'!C11,'S40'!C11,'S38'!C11,'S29'!C11,'S27'!C11,'S22'!C11)</f>
+        <v>-0.21119663157894739</v>
+      </c>
+      <c r="D11">
+        <f>MIN('S57'!C11,'S56'!C11,'S55'!C11,'S54'!C11,'S53'!C11,'S52'!C11,'S50'!C11,S49R!C11,'S48'!C11,'S47'!C11,'S46'!C11,'S43'!C11,'S42'!C11,'S41'!C11,'S40'!C11,'S38'!C11,'S29'!C11,'S27'!C11,'S22'!C11)</f>
+        <v>-0.71428499999999995</v>
+      </c>
+      <c r="E11">
+        <f>MAX('S57'!C11,'S56'!C11,'S55'!C11,'S54'!C11,'S53'!C11,'S52'!C11,'S50'!C11,S49R!C11,'S48'!C11,'S47'!C11,'S46'!C11,'S43'!C11,'S42'!C11,'S41'!C11,'S40'!C11,'S38'!C11,'S29'!C11,'S27'!C11,'S22'!C11)</f>
+        <v>0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <f>AVERAGE('S57'!C12,'S56'!C12,'S55'!C12,'S54'!C12,'S53'!C12,'S52'!C12,'S50'!C12,S49R!C12,'S48'!C12,'S47'!C12,'S46'!C12,'S43'!C12,'S42'!C12,'S41'!C12,'S40'!C12,'S38'!C12,'S29'!C12,'S27'!C12,'S22'!C12)</f>
+        <v>-0.10488263157894739</v>
+      </c>
+      <c r="D12">
+        <f>MIN('S57'!C12,'S56'!C12,'S55'!C12,'S54'!C12,'S53'!C12,'S52'!C12,'S50'!C12,S49R!C12,'S48'!C12,'S47'!C12,'S46'!C12,'S43'!C12,'S42'!C12,'S41'!C12,'S40'!C12,'S38'!C12,'S29'!C12,'S27'!C12,'S22'!C12)</f>
+        <v>-0.79590000000000005</v>
+      </c>
+      <c r="E12">
+        <f>MAX('S57'!C12,'S56'!C12,'S55'!C12,'S54'!C12,'S53'!C12,'S52'!C12,'S50'!C12,S49R!C12,'S48'!C12,'S47'!C12,'S46'!C12,'S43'!C12,'S42'!C12,'S41'!C12,'S40'!C12,'S38'!C12,'S29'!C12,'S27'!C12,'S22'!C12)</f>
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <f>AVERAGE('S57'!C13,'S56'!C13,'S55'!C13,'S54'!C13,'S53'!C13,'S52'!C13,'S50'!C13,S49R!C13,'S48'!C13,'S47'!C13,'S46'!C13,'S43'!C13,'S42'!C13,'S41'!C13,'S40'!C13,'S38'!C13,'S29'!C13,'S27'!C13,'S22'!C13)</f>
+        <v>6.3095263157894712E-3</v>
+      </c>
+      <c r="D13">
+        <f>MIN('S57'!C13,'S56'!C13,'S55'!C13,'S54'!C13,'S53'!C13,'S52'!C13,'S50'!C13,S49R!C13,'S48'!C13,'S47'!C13,'S46'!C13,'S43'!C13,'S42'!C13,'S41'!C13,'S40'!C13,'S38'!C13,'S29'!C13,'S27'!C13,'S22'!C13)</f>
+        <v>-0.594059</v>
+      </c>
+      <c r="E13">
+        <f>MAX('S57'!C13,'S56'!C13,'S55'!C13,'S54'!C13,'S53'!C13,'S52'!C13,'S50'!C13,S49R!C13,'S48'!C13,'S47'!C13,'S46'!C13,'S43'!C13,'S42'!C13,'S41'!C13,'S40'!C13,'S38'!C13,'S29'!C13,'S27'!C13,'S22'!C13)</f>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <f>AVERAGE('S57'!C14,'S56'!C14,'S55'!C14,'S54'!C14,'S53'!C14,'S52'!C14,'S50'!C14,S49R!C14,'S48'!C14,'S47'!C14,'S46'!C14,'S43'!C14,'S42'!C14,'S41'!C14,'S40'!C14,'S38'!C14,'S29'!C14,'S27'!C14,'S22'!C14)</f>
+        <v>0.12235157894736846</v>
+      </c>
+      <c r="D14">
+        <f>MIN('S57'!C14,'S56'!C14,'S55'!C14,'S54'!C14,'S53'!C14,'S52'!C14,'S50'!C14,S49R!C14,'S48'!C14,'S47'!C14,'S46'!C14,'S43'!C14,'S42'!C14,'S41'!C14,'S40'!C14,'S38'!C14,'S29'!C14,'S27'!C14,'S22'!C14)</f>
+        <v>-0.55900000000000005</v>
+      </c>
+      <c r="E14">
+        <f>MAX('S57'!C14,'S56'!C14,'S55'!C14,'S54'!C14,'S53'!C14,'S52'!C14,'S50'!C14,S49R!C14,'S48'!C14,'S47'!C14,'S46'!C14,'S43'!C14,'S42'!C14,'S41'!C14,'S40'!C14,'S38'!C14,'S29'!C14,'S27'!C14,'S22'!C14)</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <f>AVERAGE('S57'!C15,'S56'!C15,'S55'!C15,'S54'!C15,'S53'!C15,'S52'!C15,'S50'!C15,S49R!C15,'S48'!C15,'S47'!C15,'S46'!C15,'S43'!C15,'S42'!C15,'S41'!C15,'S40'!C15,'S38'!C15,'S29'!C15,'S27'!C15,'S22'!C15)</f>
+        <v>0.12317578947368425</v>
+      </c>
+      <c r="D15">
+        <f>MIN('S57'!C15,'S56'!C15,'S55'!C15,'S54'!C15,'S53'!C15,'S52'!C15,'S50'!C15,S49R!C15,'S48'!C15,'S47'!C15,'S46'!C15,'S43'!C15,'S42'!C15,'S41'!C15,'S40'!C15,'S38'!C15,'S29'!C15,'S27'!C15,'S22'!C15)</f>
+        <v>-0.82399999999999995</v>
+      </c>
+      <c r="E15">
+        <f>MAX('S57'!C15,'S56'!C15,'S55'!C15,'S54'!C15,'S53'!C15,'S52'!C15,'S50'!C15,S49R!C15,'S48'!C15,'S47'!C15,'S46'!C15,'S43'!C15,'S42'!C15,'S41'!C15,'S40'!C15,'S38'!C15,'S29'!C15,'S27'!C15,'S22'!C15)</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <f>AVERAGE('S57'!C16,'S56'!C16,'S55'!C16,'S54'!C16,'S53'!C16,'S52'!C16,'S50'!C16,S49R!C16,'S48'!C16,'S47'!C16,'S46'!C16,'S43'!C16,'S42'!C16,'S41'!C16,'S40'!C16,'S38'!C16,'S29'!C16,'S27'!C16,'S22'!C16)</f>
+        <v>0.10616759473684209</v>
+      </c>
+      <c r="D16">
+        <f>MIN('S57'!C16,'S56'!C16,'S55'!C16,'S54'!C16,'S53'!C16,'S52'!C16,'S50'!C16,S49R!C16,'S48'!C16,'S47'!C16,'S46'!C16,'S43'!C16,'S42'!C16,'S41'!C16,'S40'!C16,'S38'!C16,'S29'!C16,'S27'!C16,'S22'!C16)</f>
+        <v>-0.9</v>
+      </c>
+      <c r="E16">
+        <f>MAX('S57'!C16,'S56'!C16,'S55'!C16,'S54'!C16,'S53'!C16,'S52'!C16,'S50'!C16,S49R!C16,'S48'!C16,'S47'!C16,'S46'!C16,'S43'!C16,'S42'!C16,'S41'!C16,'S40'!C16,'S38'!C16,'S29'!C16,'S27'!C16,'S22'!C16)</f>
+        <v>0.80110000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <f>AVERAGE('S57'!C17,'S56'!C17,'S55'!C17,'S54'!C17,'S53'!C17,'S52'!C17,'S50'!C17,S49R!C17,'S48'!C17,'S47'!C17,'S46'!C17,'S43'!C17,'S42'!C17,'S41'!C17,'S40'!C17,'S38'!C17,'S29'!C17,'S27'!C17,'S22'!C17)</f>
+        <v>-2.709478947368418E-2</v>
+      </c>
+      <c r="D17">
+        <f>MIN('S57'!C17,'S56'!C17,'S55'!C17,'S54'!C17,'S53'!C17,'S52'!C17,'S50'!C17,S49R!C17,'S48'!C17,'S47'!C17,'S46'!C17,'S43'!C17,'S42'!C17,'S41'!C17,'S40'!C17,'S38'!C17,'S29'!C17,'S27'!C17,'S22'!C17)</f>
+        <v>-1.2843100000000001</v>
+      </c>
+      <c r="E17">
+        <f>MAX('S57'!C17,'S56'!C17,'S55'!C17,'S54'!C17,'S53'!C17,'S52'!C17,'S50'!C17,S49R!C17,'S48'!C17,'S47'!C17,'S46'!C17,'S43'!C17,'S42'!C17,'S41'!C17,'S40'!C17,'S38'!C17,'S29'!C17,'S27'!C17,'S22'!C17)</f>
+        <v>0.72972000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50FD063-7DF7-604C-86F8-A6ED6AEB3A99}">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17" thickBot="1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17" thickBot="1">
+      <c r="A2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-0.748</v>
+      </c>
+      <c r="D2">
+        <v>37.1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>49.3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>282</v>
+      </c>
+      <c r="G2" s="2">
+        <v>32</v>
+      </c>
+      <c r="I2">
+        <f>20*LOG10(F2)</f>
+        <v>49.004982166387222</v>
+      </c>
+      <c r="N2" s="8">
+        <v>41843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17" thickBot="1">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-0.64239999999999997</v>
+      </c>
+      <c r="D3">
+        <v>37.1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>49.3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>282</v>
+      </c>
+      <c r="G3" s="2">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I17" si="0">20*LOG10(F3)</f>
+        <v>49.004982166387222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17" thickBot="1">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-0.50900000000000001</v>
+      </c>
+      <c r="D4">
+        <v>38.4</v>
+      </c>
+      <c r="E4" s="3">
+        <v>51.7</v>
+      </c>
+      <c r="F4" s="2">
+        <v>299</v>
+      </c>
+      <c r="G4" s="2">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>49.513423766488593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17" thickBot="1">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-0.67400000000000004</v>
+      </c>
+      <c r="D5">
+        <v>38.4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2">
+        <v>317</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>50.021185244355031</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17" thickBot="1">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-0.65</v>
+      </c>
+      <c r="D6">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45.8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>317</v>
+      </c>
+      <c r="G6" s="2">
+        <v>40</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>50.021185244355031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17" thickBot="1">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-0.64300000000000002</v>
+      </c>
+      <c r="D7">
+        <v>38.4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45.3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>320</v>
+      </c>
+      <c r="G7" s="2">
+        <v>46</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>50.102999566398118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17" thickBot="1">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-0.59199999999999997</v>
+      </c>
+      <c r="D8">
+        <v>39.5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>41.6</v>
+      </c>
+      <c r="F8" s="2">
+        <v>339</v>
+      </c>
+      <c r="G8" s="2">
+        <v>49</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>50.603993964061644</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17" thickBot="1">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-0.65105999999999997</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9" s="4">
+        <v>44.2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>351</v>
+      </c>
+      <c r="G9" s="2">
+        <v>47</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>50.906142329316481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17" thickBot="1">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-0.57699999999999996</v>
+      </c>
+      <c r="D10">
+        <v>40.1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>49</v>
+      </c>
+      <c r="F10" s="2">
+        <v>355</v>
+      </c>
+      <c r="G10" s="2">
+        <v>52</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>51.004567061101881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17" thickBot="1">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-0.4</v>
+      </c>
+      <c r="D11">
+        <v>40.1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>50.5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>381</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>51.61849951351239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17" thickBot="1">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-0.28100000000000003</v>
+      </c>
+      <c r="D12">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E12" s="4">
+        <v>45.4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>355</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>51.004567061101881</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" thickBot="1">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-0.22700000000000001</v>
+      </c>
+      <c r="D13">
+        <v>41.5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>45.3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>299</v>
+      </c>
+      <c r="G13" s="2">
+        <v>49</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>49.513423766488593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17" thickBot="1">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="D14">
+        <v>40.1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>42.3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>279</v>
+      </c>
+      <c r="G14" s="2">
+        <v>42</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>48.912084065471944</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17" thickBot="1">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-0.20699999999999999</v>
+      </c>
+      <c r="D15">
+        <v>41.2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>50.3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>260</v>
+      </c>
+      <c r="G15" s="2">
+        <v>41</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>48.299466959416357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17" thickBot="1">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-0.312</v>
+      </c>
+      <c r="D16">
+        <v>40.4</v>
+      </c>
+      <c r="E16" s="5">
+        <v>51.4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>244</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>47.747796526774586</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="17" thickBot="1">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-0.41699999999999998</v>
+      </c>
+      <c r="D17">
+        <v>40.4</v>
+      </c>
+      <c r="E17" s="5">
+        <v>51.4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>244</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>47.747796526774586</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AD9831-DA6E-6E40-929C-C434BA06079A}">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4027,1179 +6227,6 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-0.80800000000000005</v>
-      </c>
-      <c r="D2">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="E2">
-        <v>42.3</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <f>20*LOG10(F2)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>-0.748</v>
-      </c>
-      <c r="D3">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="E3">
-        <v>42.3</v>
-      </c>
-      <c r="F3">
-        <v>159</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I17" si="0">20*LOG10(F3)</f>
-        <v>44.027942486409025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>-0.85599999999999998</v>
-      </c>
-      <c r="D4">
-        <v>33.6</v>
-      </c>
-      <c r="E4">
-        <v>39.9</v>
-      </c>
-      <c r="F4">
-        <v>158</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>43.973141739088454</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>-0.76</v>
-      </c>
-      <c r="D5">
-        <v>33.6</v>
-      </c>
-      <c r="E5">
-        <v>41.8</v>
-      </c>
-      <c r="F5">
-        <v>157</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>43.91799304818467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>-0.71</v>
-      </c>
-      <c r="D6">
-        <v>33.9</v>
-      </c>
-      <c r="E6">
-        <v>41.5</v>
-      </c>
-      <c r="F6">
-        <v>168</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>44.506185634517259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-0.46600000000000003</v>
-      </c>
-      <c r="D7">
-        <v>34.1</v>
-      </c>
-      <c r="E7">
-        <v>42.2</v>
-      </c>
-      <c r="F7">
-        <v>177</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>44.959465327236138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>-0.44</v>
-      </c>
-      <c r="D8">
-        <v>30.7</v>
-      </c>
-      <c r="E8">
-        <v>41.9</v>
-      </c>
-      <c r="F8">
-        <v>177</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>44.959465327236138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-0.44400000000000001</v>
-      </c>
-      <c r="D9">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="E9">
-        <v>43.8</v>
-      </c>
-      <c r="F9">
-        <v>199</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>45.977061528194135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>-0.34599999999999997</v>
-      </c>
-      <c r="D10">
-        <v>33.9</v>
-      </c>
-      <c r="E10">
-        <v>44.1</v>
-      </c>
-      <c r="F10">
-        <v>211</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>46.485649105953854</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>-0.13400000000000001</v>
-      </c>
-      <c r="D11">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="E11">
-        <v>44.6</v>
-      </c>
-      <c r="F11">
-        <v>211</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>46.485649105953854</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D12">
-        <v>35.6</v>
-      </c>
-      <c r="E12">
-        <v>43.9</v>
-      </c>
-      <c r="F12">
-        <v>229</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>47.196709646797757</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>-4.2000000000000003E-2</v>
-      </c>
-      <c r="D13">
-        <v>33.4</v>
-      </c>
-      <c r="E13">
-        <v>42.2</v>
-      </c>
-      <c r="F13">
-        <v>256</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>48.164799306236993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="D14">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="E14">
-        <v>45.5</v>
-      </c>
-      <c r="F14">
-        <v>272</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>48.691378080683975</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>-0.06</v>
-      </c>
-      <c r="D15">
-        <v>35.1</v>
-      </c>
-      <c r="E15">
-        <v>43.8</v>
-      </c>
-      <c r="F15">
-        <v>256</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>48.164799306236993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="D16">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="E16">
-        <v>45.4</v>
-      </c>
-      <c r="F16">
-        <v>251</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>47.993474429620761</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="D17">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="E17">
-        <v>45.4</v>
-      </c>
-      <c r="F17">
-        <v>200</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>46.020599913279625</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8B7EE7-0C56-7E4C-ABAB-71B2B8A876D2}">
-  <dimension ref="A1:N17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-0.65600000000000003</v>
-      </c>
-      <c r="D2">
-        <v>34.4</v>
-      </c>
-      <c r="E2">
-        <v>47.5</v>
-      </c>
-      <c r="F2">
-        <v>200</v>
-      </c>
-      <c r="I2">
-        <f>20*LOG10(F2)</f>
-        <v>46.020599913279625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-0.45600000000000002</v>
-      </c>
-      <c r="D3">
-        <v>34.4</v>
-      </c>
-      <c r="E3">
-        <v>47.5</v>
-      </c>
-      <c r="F3">
-        <v>265</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I17" si="0">20*LOG10(F3)</f>
-        <v>48.464917478736155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="D4">
-        <v>29</v>
-      </c>
-      <c r="E4">
-        <v>46.4</v>
-      </c>
-      <c r="F4">
-        <v>223</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>46.96609726096321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="D5">
-        <v>25.5</v>
-      </c>
-      <c r="E5">
-        <v>41.9</v>
-      </c>
-      <c r="F5">
-        <v>237</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>47.494966920202081</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="D6">
-        <v>30.5</v>
-      </c>
-      <c r="E6">
-        <v>50.1</v>
-      </c>
-      <c r="F6">
-        <v>234</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>47.384317148202861</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="D7">
-        <v>35.6</v>
-      </c>
-      <c r="E7">
-        <v>46.2</v>
-      </c>
-      <c r="F7">
-        <v>237</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>47.494966920202081</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="D8">
-        <v>35.4</v>
-      </c>
-      <c r="E8">
-        <v>48.3</v>
-      </c>
-      <c r="F8">
-        <v>251</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>47.993474429620761</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="E9">
-        <v>47.1</v>
-      </c>
-      <c r="F9">
-        <v>251</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>47.993474429620761</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>0.104</v>
-      </c>
-      <c r="D10">
-        <v>33.6</v>
-      </c>
-      <c r="E10">
-        <v>42.9</v>
-      </c>
-      <c r="F10">
-        <v>256</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>48.164799306236993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="D11">
-        <v>33.1</v>
-      </c>
-      <c r="E11">
-        <v>49.5</v>
-      </c>
-      <c r="F11">
-        <v>259</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>48.265995281625038</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>33.9</v>
-      </c>
-      <c r="E12">
-        <v>46.1</v>
-      </c>
-      <c r="F12">
-        <v>312</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>49.883091880368859</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D13">
-        <v>34.5</v>
-      </c>
-      <c r="E13">
-        <v>46.6</v>
-      </c>
-      <c r="F13">
-        <v>316</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>49.99374165236808</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="D14">
-        <v>33.4</v>
-      </c>
-      <c r="E14">
-        <v>49.4</v>
-      </c>
-      <c r="F14">
-        <v>301</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>49.571329911876873</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="D15">
-        <v>35.9</v>
-      </c>
-      <c r="E15">
-        <v>46</v>
-      </c>
-      <c r="F15">
-        <v>298</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>49.484325281525102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.622</v>
-      </c>
-      <c r="D16">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="E16">
-        <v>50.2</v>
-      </c>
-      <c r="F16">
-        <v>278</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>48.880895918361524</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="D17">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="E17">
-        <v>50.2</v>
-      </c>
-      <c r="F17">
-        <v>200</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>46.020599913279625</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2163E86-6E80-A740-9F46-DA057009EF8E}">
-  <dimension ref="A1:N17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-0.14399999999999999</v>
-      </c>
-      <c r="D2">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="E2">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="F2">
-        <v>200</v>
-      </c>
-      <c r="I2">
-        <f>20*LOG10(F2)</f>
-        <v>46.020599913279625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>-0.23799999999999999</v>
-      </c>
-      <c r="D3">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="E3">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="F3">
-        <v>207</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I17" si="0">20*LOG10(F3)</f>
-        <v>46.319406909138358</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-0.21</v>
-      </c>
-      <c r="D4">
-        <v>37.5</v>
-      </c>
-      <c r="E4">
-        <v>42.4</v>
-      </c>
-      <c r="F4">
-        <v>221</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>46.887845473702214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>-0.37</v>
-      </c>
-      <c r="D5">
-        <v>37.5</v>
-      </c>
-      <c r="E5">
-        <v>44.3</v>
-      </c>
-      <c r="F5">
-        <v>257</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>48.19866246662589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-0.42399999999999999</v>
-      </c>
-      <c r="D6">
-        <v>37.9</v>
-      </c>
-      <c r="E6">
-        <v>48.9</v>
-      </c>
-      <c r="F6">
-        <v>246</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>47.818702142067586</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>-0.308</v>
-      </c>
-      <c r="D7">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="E7">
-        <v>52.4</v>
-      </c>
-      <c r="F7">
-        <v>224</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>47.004960366683257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-0.27400000000000002</v>
-      </c>
-      <c r="D8">
-        <v>36.75</v>
-      </c>
-      <c r="E8">
-        <v>50.3</v>
-      </c>
-      <c r="F8">
-        <v>221</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>46.887845473702214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-0.442</v>
-      </c>
-      <c r="D9">
-        <v>36.5</v>
-      </c>
-      <c r="E9">
-        <v>48</v>
-      </c>
-      <c r="F9">
-        <v>232</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>47.309759697817995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-0.48</v>
-      </c>
-      <c r="D10">
-        <v>36.9</v>
-      </c>
-      <c r="E10">
-        <v>45.4</v>
-      </c>
-      <c r="F10">
-        <v>237</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>47.494966920202081</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>-0.372</v>
-      </c>
-      <c r="D11">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="E11">
-        <v>40.9</v>
-      </c>
-      <c r="F11">
-        <v>229</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>47.196709646797757</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="D12">
-        <v>35.5</v>
-      </c>
-      <c r="E12">
-        <v>46.3</v>
-      </c>
-      <c r="F12">
-        <v>224</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>47.004960366683257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="D13">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="E13">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="F13">
-        <v>168</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>44.506185634517259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="D14">
-        <v>32.6</v>
-      </c>
-      <c r="E14">
-        <v>36.1</v>
-      </c>
-      <c r="F14">
-        <v>170</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>44.608978427565482</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="D15">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="E15">
-        <v>36.5</v>
-      </c>
-      <c r="F15">
-        <v>162</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>44.190300290852619</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="D16">
-        <v>32.9</v>
-      </c>
-      <c r="E16">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="F16">
-        <v>133</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>42.477032819341716</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="D17">
-        <v>32.9</v>
-      </c>
-      <c r="E17">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E26D15-C0F9-114E-AC4F-43297D387AFC}">
-  <dimension ref="A1:N17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
@@ -5232,735 +6259,6 @@
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-0.71499999999999997</v>
-      </c>
-      <c r="N2" s="8">
-        <v>41282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-0.80600000000000005</v>
-      </c>
-      <c r="D3" s="7">
-        <v>42</v>
-      </c>
-      <c r="E3">
-        <v>43.095335872603769</v>
-      </c>
-      <c r="F3" s="7">
-        <v>113.5</v>
-      </c>
-      <c r="I3">
-        <v>41.099917230582832</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-0.86850000000000005</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4">
-        <v>43.439947503832258</v>
-      </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-0.81499999999999995</v>
-      </c>
-      <c r="D5" s="7">
-        <v>39</v>
-      </c>
-      <c r="E5">
-        <v>45.328524805390039</v>
-      </c>
-      <c r="F5" s="7">
-        <v>153.1</v>
-      </c>
-      <c r="I5">
-        <v>43.699503813965215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-0.59099999999999997</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6">
-        <v>43.482799108622281</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-0.254</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7">
-        <v>41.931842116038631</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-0.13100000000000001</v>
-      </c>
-      <c r="D8" s="7">
-        <v>37</v>
-      </c>
-      <c r="E8">
-        <v>41.608682937038786</v>
-      </c>
-      <c r="F8" s="7">
-        <v>124.5</v>
-      </c>
-      <c r="I8">
-        <v>41.903387028635102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-0.315</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9">
-        <v>45.022613373376807</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-0.46800000000000003</v>
-      </c>
-      <c r="D10" s="7">
-        <v>50</v>
-      </c>
-      <c r="E10">
-        <v>50.339991966275974</v>
-      </c>
-      <c r="F10" s="7">
-        <v>128.80000000000001</v>
-      </c>
-      <c r="I10">
-        <v>42.198317260475868</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11">
-        <v>45.438592442931494</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12">
-        <v>44.17528016116497</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="D13" s="7">
-        <v>50</v>
-      </c>
-      <c r="E13">
-        <v>44.491521336736014</v>
-      </c>
-      <c r="F13" s="7">
-        <v>149.6</v>
-      </c>
-      <c r="I13">
-        <v>43.498631870568843</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.1082</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14">
-        <v>46.203319968205193</v>
-      </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>-0.106</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15">
-        <v>48.207202008189725</v>
-      </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
-        <v>-0.373</v>
-      </c>
-      <c r="D16" s="7">
-        <v>50</v>
-      </c>
-      <c r="E16">
-        <v>49.18620195816068</v>
-      </c>
-      <c r="F16" s="7">
-        <v>153.1</v>
-      </c>
-      <c r="I16">
-        <v>43.699503813965215</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
-        <v>-0.753</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50FD063-7DF7-604C-86F8-A6ED6AEB3A99}">
-  <dimension ref="A1:N17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:14" ht="17" thickBot="1">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="17" thickBot="1">
-      <c r="A2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-0.748</v>
-      </c>
-      <c r="D2">
-        <v>37.1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>49.3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>282</v>
-      </c>
-      <c r="G2" s="2">
-        <v>32</v>
-      </c>
-      <c r="I2">
-        <f>20*LOG10(F2)</f>
-        <v>49.004982166387222</v>
-      </c>
-      <c r="N2" s="8">
-        <v>41843</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="17" thickBot="1">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-0.64239999999999997</v>
-      </c>
-      <c r="D3">
-        <v>37.1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>49.3</v>
-      </c>
-      <c r="F3" s="2">
-        <v>282</v>
-      </c>
-      <c r="G3" s="2">
-        <v>35</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I17" si="0">20*LOG10(F3)</f>
-        <v>49.004982166387222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="17" thickBot="1">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-0.50900000000000001</v>
-      </c>
-      <c r="D4">
-        <v>38.4</v>
-      </c>
-      <c r="E4" s="3">
-        <v>51.7</v>
-      </c>
-      <c r="F4" s="2">
-        <v>299</v>
-      </c>
-      <c r="G4" s="2">
-        <v>38</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>49.513423766488593</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="17" thickBot="1">
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-0.67400000000000004</v>
-      </c>
-      <c r="D5">
-        <v>38.4</v>
-      </c>
-      <c r="E5" s="3">
-        <v>48</v>
-      </c>
-      <c r="F5" s="2">
-        <v>317</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>50.021185244355031</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="17" thickBot="1">
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-0.65</v>
-      </c>
-      <c r="D6">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="E6" s="3">
-        <v>45.8</v>
-      </c>
-      <c r="F6" s="2">
-        <v>317</v>
-      </c>
-      <c r="G6" s="2">
-        <v>40</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>50.021185244355031</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="17" thickBot="1">
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-0.64300000000000002</v>
-      </c>
-      <c r="D7">
-        <v>38.4</v>
-      </c>
-      <c r="E7" s="3">
-        <v>45.3</v>
-      </c>
-      <c r="F7" s="2">
-        <v>320</v>
-      </c>
-      <c r="G7" s="2">
-        <v>46</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>50.102999566398118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="17" thickBot="1">
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-0.59199999999999997</v>
-      </c>
-      <c r="D8">
-        <v>39.5</v>
-      </c>
-      <c r="E8" s="4">
-        <v>41.6</v>
-      </c>
-      <c r="F8" s="2">
-        <v>339</v>
-      </c>
-      <c r="G8" s="2">
-        <v>49</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>50.603993964061644</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="17" thickBot="1">
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-0.47199999999999998</v>
-      </c>
-      <c r="D9">
-        <v>40</v>
-      </c>
-      <c r="E9" s="4">
-        <v>44.2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>351</v>
-      </c>
-      <c r="G9" s="2">
-        <v>47</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>50.906142329316481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="17" thickBot="1">
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-0.57699999999999996</v>
-      </c>
-      <c r="D10">
-        <v>40.1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>49</v>
-      </c>
-      <c r="F10" s="2">
-        <v>355</v>
-      </c>
-      <c r="G10" s="2">
-        <v>52</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>51.004567061101881</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="17" thickBot="1">
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>-0.4</v>
-      </c>
-      <c r="D11">
-        <v>40.1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>50.5</v>
-      </c>
-      <c r="F11" s="2">
-        <v>381</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>51.61849951351239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="17" thickBot="1">
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-0.28100000000000003</v>
-      </c>
-      <c r="D12">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="E12" s="4">
-        <v>45.4</v>
-      </c>
-      <c r="F12" s="2">
-        <v>355</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>51.004567061101881</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="17" thickBot="1">
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>-0.22700000000000001</v>
-      </c>
-      <c r="D13">
-        <v>41.5</v>
-      </c>
-      <c r="E13" s="5">
-        <v>45.3</v>
-      </c>
-      <c r="F13" s="2">
-        <v>299</v>
-      </c>
-      <c r="G13" s="2">
-        <v>49</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>49.513423766488593</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="17" thickBot="1">
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>-0.14499999999999999</v>
-      </c>
-      <c r="D14">
-        <v>40.1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>42.3</v>
-      </c>
-      <c r="F14" s="2">
-        <v>279</v>
-      </c>
-      <c r="G14" s="2">
-        <v>42</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>48.912084065471944</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="17" thickBot="1">
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>-0.20699999999999999</v>
-      </c>
-      <c r="D15">
-        <v>41.2</v>
-      </c>
-      <c r="E15" s="5">
-        <v>50.3</v>
-      </c>
-      <c r="F15" s="2">
-        <v>260</v>
-      </c>
-      <c r="G15" s="2">
-        <v>41</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>48.299466959416357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="17" thickBot="1">
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
-        <v>-0.312</v>
-      </c>
-      <c r="D16">
-        <v>40.4</v>
-      </c>
-      <c r="E16" s="5">
-        <v>51.4</v>
-      </c>
-      <c r="F16" s="2">
-        <v>244</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>47.747796526774586</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="17" thickBot="1">
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
-        <v>-0.41699999999999998</v>
-      </c>
-      <c r="D17">
-        <v>40.4</v>
-      </c>
-      <c r="E17" s="5">
-        <v>51.4</v>
-      </c>
-      <c r="F17" s="2">
-        <v>244</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>47.747796526774586</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AD9831-DA6E-6E40-929C-C434BA06079A}">
-  <dimension ref="A1:N17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
       <c r="B2">
         <v>1</v>
       </c>
@@ -6783,7 +7081,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6827,6 +7125,9 @@
       </c>
     </row>
     <row r="2" spans="1:14">
+      <c r="A2">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="B2">
         <v>1</v>
       </c>
@@ -7163,7 +7464,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1">
-        <v>-0.97058</v>
+        <v>-1.2843100000000001</v>
       </c>
       <c r="D17">
         <v>36.932369196815571</v>
@@ -7190,7 +7491,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7331,7 +7632,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>-1.7999999999999999E-2</v>
+        <v>-0.27272999999999997</v>
       </c>
       <c r="D6">
         <v>28.150369565189305</v>
@@ -8011,7 +8312,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8058,6 +8359,9 @@
       <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15">
+      <c r="A2">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="B2">
         <v>1</v>
       </c>
@@ -8191,7 +8495,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>-0.72765899999999994</v>
+        <v>-0.8972</v>
       </c>
       <c r="D8">
         <v>38.78531588687958</v>
